--- a/500all/speech_level/speeches_CHRG-114hhrg95046.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95046.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412488</t>
   </si>
   <si>
-    <t>Sean P. Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Duffy. The Subcommittee on Oversight and Investigations will come to order. The title of today's subcommittee hearing is, ``Exploring Alleged Ethical and Legal Violations at the U.S. Department of Housing and Urban Development.''    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    The Chair now recognizes himself for 3 minutes for an opening statement. I first want to thank everyone for being here today, including our witnesses.    Our witnesses are here to discuss two reports. The first is the Inspector General's report on allegations of improper lobbying and obstruction at the Department of Housing and Urban Development.    For those returning members to the committee, you will remember that we first discussed this report almost a year ago, in February, when Mr. Montoya was here. At that time, Mr. Montoya and I talked about the whitewash mentality at HUD. At the time, I found those revelations troubling, but I hoped that we could chalk it up to just a few bad apples at HUD.    But we are back here again today to discuss what happened with those bad apples because of other completely unrelated allegations that have surfaced. In fact, I think we are going to hear many stories of the waste, fraud, and abuse that is now taking place at HUD.    The second report our witnesses have been asked to discuss concerns the questionable hiring practices at the Department that might have created a glaring conflict of interest. And that is within the Office of Public and Indian Housing. I want to make clear to committee members that these are very different allegations against different employees in different departments and divisions responsible for very different tasks.    But they seem to display the same cavalier attitude that shows these employees do not believe in following the rules. And they do not care about getting caught, and when they are caught they don't care about obstructing an investigation or Congress. Their purpose is to protect themselves and each other. And sadly, what we find is that they get away with it. And sometimes, they even get rewarded during periods of bad behavior. It is an attitude that I think Americans are learning is prevalent throughout this Administration and it is an attitude of which we are all quickly getting very tired.    I want to make clear that we are not here to debate the importance of HUD, the importance of its mission, or the work that they do. Millions of Americans who have fallen on hard times--veterans, single mothers, their children--all rely on HUD's programs, and we should all recognize and applaud their efforts.    In fact, it is because of the hard work of many HUD employees that we are here today. It is because they are the ones who have come forward and reported these allegations. They already work with limited resources that should not be diverted to illegal lobbying efforts or overpaying a lobbyist.    So I look forward to hearing from our witnesses today to learn what sort of reprimands HUD has taken against these employees and what steps they continue to take to ensure that this attitude of disregard for accountability does not entrench itself within the Department permanently. And I hope my friends on the other side of the aisle will work with me in this committee to get to the bottom of these allegations and ensure that these bad acts stop now.    And with that, I yield to my good friend, the ranking member of our Oversight and Investigations Subcommittee, Representative Green from Texas.</t>
   </si>
   <si>
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Let me acknowledge that this is your first hearing as the official Chair. While you have occupied the seat before, this is your first time as Chair, and I commend you and want to thank you for the conversations that you and I have had prior to this hearing. While they were personal to us, I will indicate that they have been positive and productive. Again, I thank you.    I would also like to thank our staffs for the outstanding jobs that they have done in preparing us for today's hearing. I sincerely believe that without the staffs' aid and assistance, we would not be nearly as effective as we are. So again, thank you staff.    Mr. Chairman, I am pleased that we are taking an interest in how to improve the Federal agency principally responsible for providing housing to low-income Americans. Today's hearing will cover HUD Inspector General (IG) investigations into alleged wrongdoing at the U.S. Department of Housing and Urban Development.    The first report concerns lobbying actions taken by HUD that this subcommittee held a hearing on nearly a year ago. The IG's report for this incident concluded that HUD had not violated the Anti-Lobbying Act. However, individuals at HUD had violated HUD's internal policies related to lobbying Congress on pending legislation.    HUD has since taken action to clarify lobbying rules for its employees and acted to respond to the concerns raised during last year's hearing. More recently, the U.S. Government Accountability Office (GAO) determined that the actions taken by individuals at HUD violated the Antideficiency Act related to the proper use of appropriated funds. As such, I fully expect HUD to comply appropriately and to take the necessary actions to address this.    The other topic of today's hearing is related to an IG investigation into alleged improper activities of an individual at HUD brought on through an agreement permitted under the Intergovernmental Personnel Act.    While these agreements are designed to provide Federal agencies the ability to employ subject matter experts on a temporary basis, I believe it is our responsibility to ensure that it is being done properly. The HUD IG investigation raises a number of concerns about the actions taken by individuals at HUD and whether there was proper consideration given to potential conflicts of interest. I want to be clear, perspicuously so, Mr. Chairman. I believe, as do you, that it is our subcommittee's responsibility to fully investigate what has occurred at HUD. And if wrongdoing is uncovered, it should be dealt with appropriately.    However, like you, Mr. Chairman, I contend that this subcommittee's ultimate goal must be improving HUD. HUD's mission is critical to the success of this Nation. By and large, HUD continues to provide support for affordable housing for millions of Americans, including over 14,000 veterans. And 56 percent of HUD's tenants supported by HUD are elderly or disabled.    HUD currently employs over 9,000 people around the United States. While it would appear that the IG's findings suggest that former HUD employees may have acted improperly, we should not conclude that their actions suggest a larger, more systemic problem at HUD.    I will reiterate that HUD should act appropriately, and it appears that HUD is addressing concerns raised by the IG. One of the things that I will introduce into evidence at some point, Mr. Chairman, is a joint communique signed by the Secretary of HUD and the IG indicating a willingness to work together to bring resolution to the concerns that have been raised. We should not allow this debate to metamorphose into anything more than trying to improve HUD.    Mr. Chairman, I agree with you. And, in fact, it is my hope that once the agency has addressed our concerns, this subcommittee will turn its attention to more pressing national matters, including the struggles of our country's smallest banks and the state of our public housing in America.    Mr. Chairman, nearly every member of this committee has heard from small banks about the struggles that they are facing in balancing their consumer protections with the regulatory burdens with which they struggle. Over 6,000 of our Nation's banks, which is more than 90 percent of all banks in this country, are under $1 billion in assets. And I believe that we must do more to help them lest we wish to stand idly by as the industry continues to consolidate.    While I look forward to this hearing and hearing from our witnesses, Mr. Chairman, I do want to work to improve HUD, and I am eager to tackle the many other issues that demand our attention.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fitzpatrick. I thank the chairman for holding this important hearing.    Today, this subcommittee is going to hear testimony from yet another Federal agency about an investigation into improper behavior. This week, it is the United States Department of Housing and Urban Development, whose own Inspector General found evidence that senior employees may have circumvented the hiring process to appoint politically connected lobbyists to high-level positions.    Furthermore, this subcommittee will be following up on the Government Accountability Office and HUD OIG reports that officials violated Federal law by asking employees to contact United States Senators to ask for their support on pending legislation.    Last Congress, it was the IRS, the Department of Justice, and most tragically, the Veterans Administration. In every case, the American people saw high-ranking officials within these agencies destroy evidence, skirt the law for their own benefit, and adhere to a personal agenda. Over the course of the testimony, I hope this committee is able to determine if this type of behavior is an isolated incident of just a few bad actors, or if it stretches across the entire senior leadership. But what concerns me more is that my constituents have come to expect this type of behavior from the Administration.    Finally, this is not a hearing about the good work HUD does for struggling families across the United States, including in my district back home in Pennsylvania. And for the great number of HUD employees who work hard and who serve, I thank them for that.    In fact, this is a hearing about behavior that has occurred at previously-mentioned Federal agencies which tarnishes the good work that many Federal employees, including those at HUD, are doing for the taxpayers. So, Mr. Chairman, I look forward to the important work of this subcommittee in the 114th Congress to hold accountable Federal agencies and Federal employees.    And I yield back.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Montoya</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Montoya. Thank you, Chairman Duffy, Ranking Member Green, and members of the subcommittee. I am David Montoya, the Inspector General of the Department of Housing and Urban Development. I want to thank you for the opportunity to testify today regarding our investigative and audit work of legal and ethical issues at the Department, including lobbying activities, its improper use of agreements under the Intergovernmental Personnel Act, and other investigations of HUD employees' misconduct. My written testimony outlines a number of our concerns.    While we are encouraged by the positive involvement of Secretary Castro and Deputy Secretary Coloretti, our work does continue. On February 26th of last year, I testified before this subcommittee regarding our investigation of HUD lobbying activities. I recounted the series of events and lapses in judgment that resulted in HUD engaging in grassroots lobbying activities.    While our investigation did not result in criminal prosecution, it demonstrated an institutional failure to follow HUD's own existing internal policies. This led to placing the Department and its second highest-ranking official, the former Deputy Secretary, into a comprising situation, one that leaves an impression of lapses in judgment and unethical decision-making by high-ranking officials.    In that matter, officials attempted to impede our investigation by withholding information and threatening my investigating agents. In response to our report of investigation, HUD took no formal disciplinary action.    I am here today to state that unfortunately, we have encountered another example of senior officials bending the rules and engaging in what I consider misconduct. Over the last 5 months, we have issued two reports concerning HUD's appointment of the Deputy Director of the Council of Large Public Housing Authorities, known as CLPHA, to HUD's Office of Public and Indian Housing's (PIH's) policymaking division that was responsible for developing the regulations applicable to the entities CLPHA represents.    In essence, HUD appointed someone who represented the regulated to be in charge of developing the regulations. We believe the former Assistant Secretary and former Deputy General Assistant Secretary for PIH may have committed prohibitive personnel practices and created an inherent conflict of interest in doing so. More troubling is that once inside HUD, CLPHA's Deputy Director attempted to deregulate public housing agency reporting requirements and loosen oversight of public--or PIH programs to align with the agenda set forth by CLPHA and other similar industry groups.    These two events alone illustrate what can happen when senior officials veer from the course of ethical decision-making, skirt the edges, and act in a manner that is not in the government's best interest.    The inappropriate and sometimes illegal actions by a small group of HUD employees detract from what my experience has shown me to be the norm, which is that the vast majority of HUD employees are hard-working, dedicated civil servants. In fact, many of these cases have come to us by conscientious employees who are frustrated that their managers have not addressed these issues and allegations.    In some of these cases, we see a failure to adhere to existing policies and procedures, or we see a breakdown in responsibility. Particularly troubling to me is when information is withheld from my office or employees demonstrate a lack of candor with, or even threaten, OIG agents and yet HUD takes no action.    It is a fact that poor actions and behavior are human in nature and will occur throughout any industry or entity, private or government. HUD is not alone. But what I believe is important is what an organization does after such behavior is detected to discipline, and create an ethical culture in the workplace. It is my opinion that HUD has failed in both.    One cannot ignore the fact that for the past several years HUD has consistently ranked near the bottom in annual surveys of the most desirable Federal agency to work for. Misconduct and unethical behavior, particularly by high-ranking officials, does not, in my view, serve to enhance this unfavorable image. Employee morale also suffers when employees observe that misconduct is not dealt with and the offending employees are allowed to remain in their positions virtually unpunished.    It is in HUD's best interest that they address misconduct. Because according to a 2013 national business ethics survey conducted by the Ethics Resource Center, when employees observe misconduct on the job, their engagement drops by nearly 30 percent.    I do want to express my appreciation for Secretary Castro's effort to encourage HUD employees to cooperate with my office. Indeed, he issued a jointly-signed letter with me to all HUD employees outlining his expectations. I look forward to working with the Department and the Congress to ensure that HUD programs and personnel operate in a legal and ethical manner.    Thank you for the opportunity to speak today, and I am happy to answer your questions.    [The prepared statement of Inspector General Montoya can be found on page 36 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Duffy. Thank you, Mr. Montoya.    The Chair now recognizes Ms. Perez for 5 minutes.</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Perez. Good morning, Chairman Duffy, Vice Chairman Fitzpatrick, Ranking Member Green, and members of the subcommittee. Thank you for the opportunity to discuss our legal opinion concerning the Department of Housing and Urban Development's use of appropriations to prepare and transmit an email to the public.    GAO concluded that HUD violated the anti-lobbying provision of its Appropriations Act and the Antideficiency Act. The legal opinion was requested by this subcommittee's previous chairman. Representative McHenry asked GAO whether HUD violated anti-lobbying provisions when the Deputy Secretary prepared and transmitted an email on July 31, 2013.    That email encouraged recipients to contact specific Senators regarding pending legislation. We relied upon facts determined from the investigation done by HUD's Office of Inspector General and information that HUD provided to the subcommittee. We also asked HUD to provide us with additional facts and its legal views. HUD did not provide any additional facts or legal views to GAO.    The provision applicable in this case is Section 716 of HUD's 2012 Appropriations Act, which was carried forward by the 2013 Appropriations Act. Section 716 is commonly referred to as an anti-lobbying provision. It prohibits the use of appropriated funds for indirect or grassroots lobbying in support of or in opposition to pending legislation.    Grassroots lobbying occurs when an agency makes clear appeals to the public to contact Members of Congress regarding pending legislation. The email transmitted by the Deputy Secretary requested that recipients contact 17 named Senators in support of the Senate's version of HUD's 2014 appropriations bill, which was pending in the Senate at that time. The email emphatically urged recipients to encourage the Senators to take various actions: to vote in favor of procedural motions to advance consideration of the bill; to oppose specific amendments HUD considered harmful to the bill; and to vote in support of the bill itself.    Among the over 1,000 recipients of the Deputy Secretary's email were members of the public. GAO concluded that HUD violated Section 716 by preparing and transmitting the email. The provision is violated when there is evidence of a clear appeal by an agency to the public to contact Members of Congress in support of or in opposition to pending legislation.    Here, the Deputy Secretary's email, on its face, made several clear appeals to the public to contact Members of Congress regarding HUD's pending appropriations bill. HUD did not deny that it engaged in grassroots lobbying. Rather, HUD emphasized that the email was sent by its Deputy Secretary, who is a Presidentially-appointed and Senate-confirmed official.    HUD noted that the Department of Justice has opined that a similar anti-lobbying provision which is enforced by Justice does not restrict the activities of certain Executive Branch officials such as Presidential appointees. Notably, however, in interpreting that provision in Section 1913 of Title 18, Justice does caution against such officials engaging in the sort of lobbying activity that section was intended to prevent.    GAO's opinion did not analyze whether HUD violated Section 1913, a provision enforced by the Department of Justice, not GAO. GAO analyzed HUD's compliance with the appropriations provision found in Section 716.    GAO does not agree with HUD's view that the Deputy Secretary is exempt from the appropriations provision. Section 716 would not prevent the Deputy Secretary from engaging in normal executive legislative relationships. It does however establish a brightline rule prohibiting a clear agency appeal to the public to contact Members of Congress in support of or in opposition to pending legislation. And in this case, there is evidence of such an appeal to the public, and GAO concluded that HUD violated the anti-lobbying restriction of Section 716. By using its appropriated funds in violation of this prohibition, HUD also violated the Antideficiency Act.    The Antideficiency Act is a cornerstone of fiscal laws by which Congress enforces its constitutional power of the purse. It is also a funds-control statute that is designed to implement agency fiscal discipline.    Under the Act, officials of the government may not make or authorize an obligation or expenditure exceeding the amounts of available appropriation. In other words, agencies may not spend more than Congress provides. The legal effect of Section 716 is to make no funds--that is, zero--available to HUD for indirect or grassroots lobbying. By using funds to prepare and transmit the email in question, HUD spent funds in excess of the amount available. And because no funds were available for grassroots lobbying, HUD violated the Antideficiency Act.    Consequently, HUD must report an Antideficiency Act violation to the President and Congress, and transmit copies of the report to GAO in accordance with the law. As of this date, GAO has not received a report from HUD for this Antideficiency Act violation. Thank you, Chairman Duffy, Vice Chairman Fitzpatrick, and Ranking Member Green.    This concludes my statement, and I would be pleased to answer any questions you may have.    [The prepared statement of Ms. Perez can be found on page 48 of the appendix.]</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>400644</t>
   </si>
   <si>
-    <t>Patrick T. McHenry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McHenry. I thank my friend from Wisconsin. And I hope you will enjoy the same working relationship I had with the ranking member during my time. And congratulations on your new chairmanship, Sean. We are happy you have taken over, and I am sure the staff is much happier to work with you.    So, Mr. Montoya, thank you for being here, and Ms. Perez, thank you for being here, as well. I appreciate the work that you all do on a daily basis for the taxpayers and for the American people. It is important work.    Mr. Montoya, in your report you outline several other cases of employee misconduct in the Department of Housing and Urban Development. In your opinion, were the administrative remedies that the Department put in place sufficient?</t>
   </si>
   <si>
@@ -376,9 +358,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellison. Thank you, Mr. Chairman, and Mr. Ranking Member.    Mr. Montoya, do you argue that when someone has worked for a membership association of a public housing agency and has that background, they should be prohibited from serving in leadership at HUD on public housing issues?</t>
   </si>
   <si>
@@ -529,9 +508,6 @@
     <t>412544</t>
   </si>
   <si>
-    <t>John K. Delaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Delaney. Thank you, Mr. Chairman. And I want to thank the witnesses for their testimony, which is obviously very concerning. It is concerning on an absolute basis in terms of actually what happened and what you are reporting. But it is also concerning because, like most of my colleagues, I believe HUD does extraordinarily important work. And as my friend from Pennsylvania had pointed out, this is not a hearing about HUD. But HUD does do extraordinarily important work. And the overwhelming majority of the employees at HUD are dedicated public servants working hard in an honest and ethical manner for the good of the taxpayers.    But this kind of situation tends to put them and the whole organization in a negative light, which is unfortunate for the taxpayers, for the organization, and for the people. And so when thinking about--kind of lifting up a little bit and thinking about some of your observations about things in terms of how they are run at HUD and how these things can happen, and just thinking about my own experience in the private sector running a public company that was subject to lots of regulations and lots of compliance, we kind of had four pillars that we tried to build upon in terms of making sure we had an organization that ran to the highest standards of ethical and compliance behavior.    The first was making sure we had really good training so that people understood what the rules are. Second, we made sure we had the infrastructure in place for ongoing monitoring and compliance. Third, we made sure we had a culture of accountability so if people actually broke the rules there were real consequences and people saw that there were consequences. And then finally, it was really important to set the right tone at the top. In other words, making sure that senior management, when they are talking about mission and execution, they are also talking about culture and behavior. And I was pleased about the joint letter that you sent with the Secretary, and I think the Secretary is doing a terrific job at the organization and is really bringing fresh energy in general.    But I am interested, Mr. Montoya, in your observations on how HUD operates as it relates against those four--at least in my words--pillars: training; compliance infrastructure; a culture of accountability; and setting the right tone at the top that actually this stuff is really important.</t>
   </si>
   <si>
@@ -580,9 +556,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman. And thank you very much, Mr. Montoya and Ms. Perez, for being here today. We really appreciate you being here and being forthright with us.    Mr. Montoya, Deborah Hernandez and Sandra Henriquez--am I correct in assuming they were senior personnel at HUD or are senior personnel at HUD?</t>
   </si>
   <si>
@@ -775,9 +748,6 @@
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman, and thank you to Ranking Member Green.    Not to be argumentative, but the Secretary was mayor of San Antonio, the second-largest city in Texas. I was mayor of the largest city in the State of Missouri. And it is virtually impossible for a mayor of one of the major cities not to deal with affordable housing almost on a daily basis. And it would be rare, maybe nonexistent, that a mayor of one of, say, the top 50 cities in the country would not--maybe top 75--deal with affordable housing, including probably some of the smaller cities.    But my question goes to the disagreement, Mr. Montoya, between the IG's office and HUD's, not in terms of the overall reported wrongdoing, but rather, I think, on some key points that I would like to get into a little deeper. Your report suggests that HUD paid the IPA a full salary and that is a violation, whereas HUD says that there is no mandate by OPM that there should be cost-sharing. OPM does not demand or require cost-sharing. Is that correct?</t>
   </si>
   <si>
@@ -823,9 +793,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. I appreciate the opportunity. Thank you, witnesses, for being with us today. I want to associate myself with the remarks of Mr. Delaney from Maryland on those of us who come to Congress from the private sector who spend hours and hours of personnel time trying to comply with a myriad of government regulations and duties and responsibilities. And I thought he summarized that quite well.    Mr. Montoya, is there a whistleblower program at HUD?</t>
   </si>
   <si>
@@ -901,9 +868,6 @@
     <t>412565</t>
   </si>
   <si>
-    <t>Joyce Beatty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Beatty. Thank you so much, Mr. Chairman, and Mr. Ranking Member. And thank you also to our witnesses today.    Let me just first say that I certainly join my colleagues in wanting to be on the record for saying how concerned I am about the instances of impartiality, the conflict of interest that you both have outlined in your testimony. And also, the improprieties with HUD's use of the IPA funds.    Second, let me just say how appreciative I am for the joint letter. And especially in paragraph one, when you both talk about if, together, we can take care of the mismanagement and the waste, we can do what our real mission is, and that is to expand the opportunities for all.    And that ties into my third statement, as I go into my question, is several of my colleagues have said it is not about HUD and the programs. I want to be on the record saying that I somewhat disagree with that. Because every time you come into a hearing and we talk about the wrongdoings, the rogue employees, it frequently, down the road, leads to the culture of the entity and the organization and how we put dollars in it.    I am very much a proponent of HUD and the services that they provide. With that said, when I go to your testimony you stated that HUD cannot know whether the policy decisions enacted during the Deputy Director's tenure were inappropriately influenced or in the best interest of HUD and all of it's stakeholders.    Can you place explain this finding, and how HUD can mitigate or eliminate the IPA mobility program improprieties? And especially since you talked about the clues that you saw.</t>
   </si>
   <si>
@@ -931,9 +895,6 @@
     <t>412484</t>
   </si>
   <si>
-    <t>Robert Hurt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurt. I thank the chairman for holding this hearing. This is my first appearance on this Oversight Subcommittee, and I can tell you I represent Virginia's 5th District. And I think that my constituents, if they were hearing what we are hearing today, would be bewildered. Perhaps not surprised, unfortunately, but bewildered by what we are hearing. And I guess a couple of quick questions for Mr. Montoya.    Where is Ms. Hernandez now?</t>
   </si>
   <si>
@@ -1117,9 +1078,6 @@
     <t>400063</t>
   </si>
   <si>
-    <t>Michael E. Capuano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman. I want to thank you two for testifying today, and I apologize for not having been here but you know how it is. We are between two committee hearings. So I didn't hear it all, so some of the stuff I might have to ask or say might be repetitive. And for that I apologize, but that is what we do here.    I guess I want to put things in perspective. As I understand it, there are about 9,000 HUD employees. Is that a reasonable estimate?</t>
   </si>
   <si>
@@ -1145,9 +1103,6 @@
   </si>
   <si>
     <t>412405</t>
-  </si>
-  <si>
-    <t>Scott R. Tipton</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. And I would like to thank our witnesses for taking the time to be here today. We have covered a lot of ground, and I really don't want to rehash a lot of that. But I really wanted to question you, Mr. Montoya. In your opening statement, you brought up that you had been threatened in the OIG when you are doing some of these investigations. I find that pretty curious. How are they threatening you?</t>
@@ -1633,11 +1588,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1657,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1685,11 +1636,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1709,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1737,11 +1684,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1761,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1789,11 +1732,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1813,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1841,11 +1780,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1865,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1893,11 +1828,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1917,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1945,11 +1876,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1969,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1997,11 +1924,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2021,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2049,11 +1972,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2073,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2101,11 +2020,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2125,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2153,11 +2068,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2177,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2205,11 +2116,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2229,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2257,11 +2164,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2281,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2309,11 +2212,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2333,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2361,11 +2260,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2385,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2413,11 +2308,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2437,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2465,11 +2356,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2489,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2517,11 +2404,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2541,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2569,11 +2452,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2593,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2621,11 +2500,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2645,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2673,11 +2548,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2697,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2725,11 +2596,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2749,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2777,11 +2644,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2801,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2827,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2853,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2879,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2905,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2931,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2957,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2983,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3009,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3035,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3061,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3087,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3113,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3139,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3165,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3191,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3217,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3243,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3269,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3295,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3321,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3347,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3373,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3399,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3425,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3451,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3477,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3503,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3529,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3555,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3581,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3609,11 +3412,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3633,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3661,11 +3460,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3685,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3711,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3737,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3763,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3789,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>98</v>
-      </c>
-      <c r="G85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H85" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3815,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3841,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3867,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3893,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3919,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3945,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3971,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3997,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4023,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4049,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4075,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4101,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4127,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4153,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4181,11 +3940,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4205,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4231,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4257,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4283,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4309,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4335,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4361,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
         <v>120</v>
-      </c>
-      <c r="H107" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4387,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4413,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4439,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4465,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4491,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4517,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4543,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4569,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4595,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4623,11 +4348,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4647,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4673,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4699,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4725,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4751,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4777,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4803,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4829,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4855,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4881,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4907,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4933,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4959,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4985,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5011,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5037,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5063,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5089,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5115,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5141,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5167,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5193,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5219,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5245,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5271,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5297,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5323,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5349,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5375,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5401,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5427,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5453,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5479,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5505,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5531,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5557,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5583,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5611,11 +5260,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5635,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5661,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5687,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5713,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5739,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5765,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5791,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
+        <v>163</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
         <v>170</v>
-      </c>
-      <c r="G162" t="s">
-        <v>171</v>
-      </c>
-      <c r="H162" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5817,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5843,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>170</v>
-      </c>
-      <c r="G164" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5869,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5895,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G166" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5921,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5947,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>170</v>
-      </c>
-      <c r="G168" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5973,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5999,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>170</v>
-      </c>
-      <c r="G170" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6027,11 +5644,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6051,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>187</v>
-      </c>
-      <c r="G172" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6077,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6103,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>187</v>
-      </c>
-      <c r="G174" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6129,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6155,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>187</v>
-      </c>
-      <c r="G176" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6181,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6207,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>187</v>
-      </c>
-      <c r="G178" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6233,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6259,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>187</v>
-      </c>
-      <c r="G180" t="s">
+        <v>179</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
         <v>188</v>
-      </c>
-      <c r="H180" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6285,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6311,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>187</v>
-      </c>
-      <c r="G182" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6337,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6363,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>187</v>
-      </c>
-      <c r="G184" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6389,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6415,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>187</v>
-      </c>
-      <c r="G186" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6441,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6467,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>187</v>
-      </c>
-      <c r="G188" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6493,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6519,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>187</v>
-      </c>
-      <c r="G190" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6545,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6571,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>187</v>
-      </c>
-      <c r="G192" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6597,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6623,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>187</v>
-      </c>
-      <c r="G194" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6649,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6675,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>187</v>
-      </c>
-      <c r="G196" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6701,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6727,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>187</v>
-      </c>
-      <c r="G198" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6753,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6779,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>187</v>
-      </c>
-      <c r="G200" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6805,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6831,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>187</v>
-      </c>
-      <c r="G202" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6857,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6883,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>187</v>
-      </c>
-      <c r="G204" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6909,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6935,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>187</v>
-      </c>
-      <c r="G206" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6961,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6987,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>187</v>
-      </c>
-      <c r="G208" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7013,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7039,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>187</v>
-      </c>
-      <c r="G210" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7065,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7091,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>187</v>
-      </c>
-      <c r="G212" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7117,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7143,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>187</v>
-      </c>
-      <c r="G214" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7169,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7195,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>187</v>
-      </c>
-      <c r="G216" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7221,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7247,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>187</v>
-      </c>
-      <c r="G218" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7273,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7299,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>187</v>
-      </c>
-      <c r="G220" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7325,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>22</v>
-      </c>
-      <c r="G221" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7351,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>187</v>
-      </c>
-      <c r="G222" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7377,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>22</v>
-      </c>
-      <c r="G223" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7403,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>187</v>
-      </c>
-      <c r="G224" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7429,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>22</v>
-      </c>
-      <c r="G225" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7455,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>187</v>
-      </c>
-      <c r="G226" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7481,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>22</v>
-      </c>
-      <c r="G227" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7507,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>187</v>
-      </c>
-      <c r="G228" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7533,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>22</v>
-      </c>
-      <c r="G229" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7559,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>187</v>
-      </c>
-      <c r="G230" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7585,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>22</v>
-      </c>
-      <c r="G231" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7611,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>187</v>
-      </c>
-      <c r="G232" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7637,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>22</v>
-      </c>
-      <c r="G233" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7663,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>187</v>
-      </c>
-      <c r="G234" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7691,11 +7180,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7715,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>187</v>
-      </c>
-      <c r="G236" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7743,11 +7228,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7767,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7795,11 +7276,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7819,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>187</v>
-      </c>
-      <c r="G240" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7845,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
-      </c>
-      <c r="G241" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7871,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>187</v>
-      </c>
-      <c r="G242" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7899,11 +7372,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7923,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>187</v>
-      </c>
-      <c r="G244" t="s">
-        <v>188</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7951,11 +7420,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7975,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>252</v>
-      </c>
-      <c r="G246" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8001,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>22</v>
-      </c>
-      <c r="G247" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8027,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>252</v>
-      </c>
-      <c r="G248" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8053,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8079,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>252</v>
-      </c>
-      <c r="G250" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8105,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8131,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>252</v>
-      </c>
-      <c r="G252" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8157,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8183,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
+        <v>243</v>
+      </c>
+      <c r="G254" t="s"/>
+      <c r="H254" t="s">
         <v>252</v>
-      </c>
-      <c r="G254" t="s">
-        <v>253</v>
-      </c>
-      <c r="H254" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8209,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>22</v>
-      </c>
-      <c r="G255" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8235,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>252</v>
-      </c>
-      <c r="G256" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8261,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
-      </c>
-      <c r="G257" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8287,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>252</v>
-      </c>
-      <c r="G258" t="s">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8315,11 +7756,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8339,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>268</v>
-      </c>
-      <c r="G260" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8365,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>22</v>
-      </c>
-      <c r="G261" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8391,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>268</v>
-      </c>
-      <c r="G262" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8417,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
-      </c>
-      <c r="G263" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8443,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>268</v>
-      </c>
-      <c r="G264" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8469,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8495,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>268</v>
-      </c>
-      <c r="G266" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8521,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>22</v>
-      </c>
-      <c r="G267" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8547,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>268</v>
-      </c>
-      <c r="G268" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8573,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8599,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
+        <v>258</v>
+      </c>
+      <c r="G270" t="s"/>
+      <c r="H270" t="s">
         <v>268</v>
-      </c>
-      <c r="G270" t="s">
-        <v>269</v>
-      </c>
-      <c r="H270" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8625,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>22</v>
-      </c>
-      <c r="G271" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8651,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>268</v>
-      </c>
-      <c r="G272" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8677,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
-      </c>
-      <c r="G273" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8703,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>268</v>
-      </c>
-      <c r="G274" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8729,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8755,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>268</v>
-      </c>
-      <c r="G276" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8781,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>22</v>
-      </c>
-      <c r="G277" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8807,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>268</v>
-      </c>
-      <c r="G278" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8833,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>22</v>
-      </c>
-      <c r="G279" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8859,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>268</v>
-      </c>
-      <c r="G280" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8885,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>22</v>
-      </c>
-      <c r="G281" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8911,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>268</v>
-      </c>
-      <c r="G282" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8937,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>22</v>
-      </c>
-      <c r="G283" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8963,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>268</v>
-      </c>
-      <c r="G284" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8989,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>22</v>
-      </c>
-      <c r="G285" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9017,11 +8404,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9041,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>294</v>
-      </c>
-      <c r="G287" t="s">
-        <v>295</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9067,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>22</v>
-      </c>
-      <c r="G288" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9093,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>294</v>
-      </c>
-      <c r="G289" t="s">
-        <v>295</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9119,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>22</v>
-      </c>
-      <c r="G290" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9145,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>294</v>
-      </c>
-      <c r="G291" t="s">
-        <v>295</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9171,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>22</v>
-      </c>
-      <c r="G292" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9197,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>294</v>
-      </c>
-      <c r="G293" t="s">
-        <v>295</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9225,11 +8596,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9249,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>304</v>
-      </c>
-      <c r="G295" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9275,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>22</v>
-      </c>
-      <c r="G296" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9301,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>304</v>
-      </c>
-      <c r="G297" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9327,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>22</v>
-      </c>
-      <c r="G298" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9353,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>304</v>
-      </c>
-      <c r="G299" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9379,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>22</v>
-      </c>
-      <c r="G300" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9405,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>304</v>
-      </c>
-      <c r="G301" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9431,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>22</v>
-      </c>
-      <c r="G302" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9457,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>304</v>
-      </c>
-      <c r="G303" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9483,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>22</v>
-      </c>
-      <c r="G304" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9509,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>304</v>
-      </c>
-      <c r="G305" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9535,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>22</v>
-      </c>
-      <c r="G306" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9561,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
+        <v>292</v>
+      </c>
+      <c r="G307" t="s"/>
+      <c r="H307" t="s">
         <v>304</v>
-      </c>
-      <c r="G307" t="s">
-        <v>305</v>
-      </c>
-      <c r="H307" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9587,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>22</v>
-      </c>
-      <c r="G308" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9613,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>304</v>
-      </c>
-      <c r="G309" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9639,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>22</v>
-      </c>
-      <c r="G310" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9665,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>304</v>
-      </c>
-      <c r="G311" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9691,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>22</v>
-      </c>
-      <c r="G312" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9717,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>304</v>
-      </c>
-      <c r="G313" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9743,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>22</v>
-      </c>
-      <c r="G314" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9769,13 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>304</v>
-      </c>
-      <c r="G315" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9795,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>22</v>
-      </c>
-      <c r="G316" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9821,13 +9146,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>304</v>
-      </c>
-      <c r="G317" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9847,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>22</v>
-      </c>
-      <c r="G318" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9873,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>304</v>
-      </c>
-      <c r="G319" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9899,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>22</v>
-      </c>
-      <c r="G320" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9925,13 +9242,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>304</v>
-      </c>
-      <c r="G321" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9951,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>22</v>
-      </c>
-      <c r="G322" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9977,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>304</v>
-      </c>
-      <c r="G323" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10003,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>22</v>
-      </c>
-      <c r="G324" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10029,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>304</v>
-      </c>
-      <c r="G325" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10055,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>22</v>
-      </c>
-      <c r="G326" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10081,13 +9386,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>304</v>
-      </c>
-      <c r="G327" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10107,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>22</v>
-      </c>
-      <c r="G328" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10133,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>304</v>
-      </c>
-      <c r="G329" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10159,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>22</v>
-      </c>
-      <c r="G330" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10185,13 +9482,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>304</v>
-      </c>
-      <c r="G331" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10211,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>22</v>
-      </c>
-      <c r="G332" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10237,13 +9530,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>304</v>
-      </c>
-      <c r="G333" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10263,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>22</v>
-      </c>
-      <c r="G334" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10289,13 +9578,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>304</v>
-      </c>
-      <c r="G335" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10315,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>22</v>
-      </c>
-      <c r="G336" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10341,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>304</v>
-      </c>
-      <c r="G337" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10367,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>22</v>
-      </c>
-      <c r="G338" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10393,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>304</v>
-      </c>
-      <c r="G339" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10419,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>22</v>
-      </c>
-      <c r="G340" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10445,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>304</v>
-      </c>
-      <c r="G341" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10471,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>22</v>
-      </c>
-      <c r="G342" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10497,13 +9770,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>304</v>
-      </c>
-      <c r="G343" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10523,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>22</v>
-      </c>
-      <c r="G344" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10549,13 +9818,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>304</v>
-      </c>
-      <c r="G345" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10575,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>22</v>
-      </c>
-      <c r="G346" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10601,13 +9866,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>304</v>
-      </c>
-      <c r="G347" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10627,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>22</v>
-      </c>
-      <c r="G348" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10653,13 +9914,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>304</v>
-      </c>
-      <c r="G349" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10679,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>22</v>
-      </c>
-      <c r="G350" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10705,13 +9962,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>304</v>
-      </c>
-      <c r="G351" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10731,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>22</v>
-      </c>
-      <c r="G352" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10757,13 +10010,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>304</v>
-      </c>
-      <c r="G353" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10783,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>22</v>
-      </c>
-      <c r="G354" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10809,13 +10058,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>304</v>
-      </c>
-      <c r="G355" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10835,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>22</v>
-      </c>
-      <c r="G356" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10861,13 +10106,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>304</v>
-      </c>
-      <c r="G357" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10887,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>22</v>
-      </c>
-      <c r="G358" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10915,11 +10156,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10939,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>366</v>
-      </c>
-      <c r="G360" t="s">
-        <v>367</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10965,13 +10202,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>22</v>
-      </c>
-      <c r="G361" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10991,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>366</v>
-      </c>
-      <c r="G362" t="s">
-        <v>367</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11017,13 +10250,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>22</v>
-      </c>
-      <c r="G363" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11043,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>366</v>
-      </c>
-      <c r="G364" t="s">
-        <v>367</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11069,13 +10298,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>22</v>
-      </c>
-      <c r="G365" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11095,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>366</v>
-      </c>
-      <c r="G366" t="s">
-        <v>367</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11123,11 +10348,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11147,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>376</v>
-      </c>
-      <c r="G368" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11173,13 +10394,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>22</v>
-      </c>
-      <c r="G369" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11199,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>376</v>
-      </c>
-      <c r="G370" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11225,13 +10442,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>22</v>
-      </c>
-      <c r="G371" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11251,13 +10466,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>376</v>
-      </c>
-      <c r="G372" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11277,13 +10490,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>22</v>
-      </c>
-      <c r="G373" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11303,13 +10514,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>376</v>
-      </c>
-      <c r="G374" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11329,13 +10538,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>22</v>
-      </c>
-      <c r="G375" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11355,13 +10562,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>376</v>
-      </c>
-      <c r="G376" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11381,13 +10586,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>22</v>
-      </c>
-      <c r="G377" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11407,13 +10610,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>376</v>
-      </c>
-      <c r="G378" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11433,13 +10634,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>22</v>
-      </c>
-      <c r="G379" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11459,13 +10658,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>376</v>
-      </c>
-      <c r="G380" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11485,13 +10682,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>22</v>
-      </c>
-      <c r="G381" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11511,13 +10706,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>376</v>
-      </c>
-      <c r="G382" t="s">
+        <v>362</v>
+      </c>
+      <c r="G382" t="s"/>
+      <c r="H382" t="s">
         <v>377</v>
-      </c>
-      <c r="H382" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11537,13 +10730,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>22</v>
-      </c>
-      <c r="G383" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11563,13 +10754,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>376</v>
-      </c>
-      <c r="G384" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11589,13 +10778,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>22</v>
-      </c>
-      <c r="G385" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11615,13 +10802,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>376</v>
-      </c>
-      <c r="G386" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11641,13 +10826,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>22</v>
-      </c>
-      <c r="G387" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11667,13 +10850,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>376</v>
-      </c>
-      <c r="G388" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11693,13 +10874,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>22</v>
-      </c>
-      <c r="G389" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11719,13 +10898,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>376</v>
-      </c>
-      <c r="G390" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11745,13 +10922,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>22</v>
-      </c>
-      <c r="G391" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11771,13 +10946,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>376</v>
-      </c>
-      <c r="G392" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11799,11 +10972,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>12</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11823,13 +10994,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>376</v>
-      </c>
-      <c r="G394" t="s">
-        <v>377</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11851,11 +11020,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11875,13 +11042,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>14</v>
-      </c>
-      <c r="G396" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11901,13 +11066,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>22</v>
-      </c>
-      <c r="G397" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11929,11 +11092,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
